--- a/results/I3_N5_M2_T45_C200_DepCentral_s1_P1_res.xlsx
+++ b/results/I3_N5_M2_T45_C200_DepCentral_s1_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>620.5057070532347</v>
+        <v>835.9115093050196</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01399993896484375</v>
+        <v>0.004000186920166016</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28.19570705323225</v>
+        <v>22.6154668145174</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.956289566331418</v>
+        <v>7.445908584740821</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.956289566331418</v>
+        <v>4.741951075243185</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>267.2400000000024</v>
+        <v>662</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>325.0700000000001</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,12 +617,23 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -667,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -678,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -689,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -700,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -711,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -722,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -733,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -791,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -802,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -835,7 +846,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -896,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>38.76072200618817</v>
+        <v>36.23964284834953</v>
       </c>
     </row>
     <row r="4">
@@ -904,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6.239277993811832</v>
+        <v>16.60181147454999</v>
       </c>
     </row>
     <row r="5">
@@ -912,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7.841089468361822</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -920,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>32.48909622152298</v>
       </c>
     </row>
     <row r="7">
@@ -928,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>32.48909622152298</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -936,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>42.45608396410244</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -944,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>37.2093610446023</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -958,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -993,7 +1004,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1007,7 +1018,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1021,10 +1032,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1035,12 +1046,96 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1143,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>230.6350000000003</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8">
@@ -1154,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>224.0900000000003</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9">
@@ -1165,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>228.8</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10">
@@ -1176,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>224.5600000000003</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11">
@@ -1187,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>225.5350000000003</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12">
@@ -1198,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>40.77499999999971</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13">
@@ -1209,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>34.87999999999971</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14">
@@ -1220,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>37.77499999999971</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15">
@@ -1231,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>41.01499999999971</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16">
@@ -1242,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>41.88499999999971</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17">
@@ -1253,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>103.665</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18">
@@ -1264,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>96.44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19">
@@ -1275,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>91.94499999999972</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20">
@@ -1286,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>97.30500000000001</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21">
@@ -1297,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>102.055</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22">
@@ -1308,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>75.89000000000051</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23">
@@ -1319,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>75.69000000000051</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24">
@@ -1330,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>80.2</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25">
@@ -1341,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>80.25500000000051</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26">
@@ -1352,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>75.56500000000051</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27">
@@ -1363,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>177.6150000000009</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28">
@@ -1374,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>171.8100000000009</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29">
@@ -1385,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>178.4650000000009</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30">
@@ -1396,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>177.2</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31">
@@ -1407,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>179.1300000000009</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32">
@@ -1418,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>230.6350000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1429,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>224.0900000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1440,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>228.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1451,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>224.5600000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1462,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>225.5350000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1473,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>177.6150000000009</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38">
@@ -1484,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>171.8100000000009</v>
+        <v>269</v>
       </c>
     </row>
     <row r="39">
@@ -1495,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>178.4650000000009</v>
+        <v>271</v>
       </c>
     </row>
     <row r="40">
@@ -1506,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>177.2</v>
+        <v>264</v>
       </c>
     </row>
     <row r="41">
@@ -1517,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>179.1300000000009</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -1564,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>30.6350000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1575,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>24.09000000000032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1586,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>28.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1597,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>24.56000000000029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1608,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>25.53500000000031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1619,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
@@ -1630,7 +1725,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9">
@@ -1641,7 +1736,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10">
@@ -1652,7 +1747,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11">
@@ -1663,7 +1758,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1765,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>6.27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1776,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>10.345</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1787,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>8.875</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1798,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>10.51</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1809,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>7.380000000000001</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1820,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>22.18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1831,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>26.98</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -1842,7 +1937,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>20.74</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1853,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>26.68</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1864,7 +1959,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>22.575</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1988,7 +2083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2068,6 +2163,61 @@
         <v>1</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
